--- a/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
+++ b/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4F559-AB6B-4215-9BA1-119245B90EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FDCB42-7BB7-495F-9D12-D48E8C54C621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
   </bookViews>
   <sheets>
     <sheet name="NameData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -206,12 +206,6 @@
     <t>95125489</t>
   </si>
   <si>
-    <t>65987541</t>
-  </si>
-  <si>
-    <t>65239412</t>
-  </si>
-  <si>
     <t>25 main st</t>
   </si>
   <si>
@@ -273,6 +267,24 @@
   </si>
   <si>
     <t>udf data 9</t>
+  </si>
+  <si>
+    <t>udf data 1</t>
+  </si>
+  <si>
+    <t>udf data 2</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>udf data 6</t>
+  </si>
+  <si>
+    <t>udf data 7</t>
+  </si>
+  <si>
+    <t>udf data 10</t>
   </si>
 </sst>
 </file>
@@ -681,7 +693,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -749,7 +761,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -925,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64820D-36BC-47E5-8B0C-19AD74EF9BDF}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -976,7 +988,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -984,10 +996,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -996,7 +1008,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1013,10 +1025,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,13 +1096,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,10 +1147,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,7 +1158,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,7 +1171,7 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5A1E49-7B99-423D-9566-8E85E2D36AE6}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,21 +1232,56 @@
         <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
+++ b/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FDCB42-7BB7-495F-9D12-D48E8C54C621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AF4115-2964-46CD-BB40-9A0CF0FE4896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>udf data 10</t>
+  </si>
+  <si>
+    <t>Corporate Check Acc Mismatch</t>
+  </si>
+  <si>
+    <t>95125480</t>
+  </si>
+  <si>
+    <t>Personal Checking Acc Mismatch</t>
   </si>
 </sst>
 </file>
@@ -935,10 +944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64820D-36BC-47E5-8B0C-19AD74EF9BDF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,6 +1055,46 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
+++ b/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AF4115-2964-46CD-BB40-9A0CF0FE4896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DBFF0-F4C4-4F3E-B7FE-C8F379B7A44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
   </bookViews>
   <sheets>
     <sheet name="NameData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Personal Checking Acc Mismatch</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C814E9C6-8B7D-4E61-A003-BF3C07F32BA3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,6 +942,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64820D-36BC-47E5-8B0C-19AD74EF9BDF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
+++ b/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DBFF0-F4C4-4F3E-B7FE-C8F379B7A44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217E86B-B8A4-4446-8890-8A2087D1A749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
   </bookViews>
   <sheets>
     <sheet name="NameData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Carlos Jacinta</t>
+  </si>
+  <si>
+    <t>udf data 1 modified</t>
   </si>
 </sst>
 </file>
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4758406-EDCC-4FC2-8D56-4EE6148C26F6}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,6 +788,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -789,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C814E9C6-8B7D-4E61-A003-BF3C07F32BA3}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,6 +976,11 @@
         <v>89</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,10 +989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64820D-36BC-47E5-8B0C-19AD74EF9BDF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,6 +1140,11 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1253,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5A1E49-7B99-423D-9566-8E85E2D36AE6}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,6 +1383,41 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
+++ b/KatalonData/BWPBootstrapData/NormalizedSharedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217E86B-B8A4-4446-8890-8A2087D1A749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14889E1-47C8-4DF9-88E6-6AC448396097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
   </bookViews>
   <sheets>
     <sheet name="NameData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>udf data 1 modified</t>
+  </si>
+  <si>
+    <t>Wills Company</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Waters</t>
   </si>
 </sst>
 </file>
@@ -714,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4758406-EDCC-4FC2-8D56-4EE6148C26F6}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +806,33 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64820D-36BC-47E5-8B0C-19AD74EF9BDF}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,6 +1184,46 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5A1E49-7B99-423D-9566-8E85E2D36AE6}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
